--- a/data/trans_dic/IMC_inf_MED_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_MED_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>58,31%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47,12%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>54,03%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>54,11%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>51,99%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>58,31%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>47,12%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>50,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>38,27%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,36; 70,4</t>
+          <t>43,45; 70,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,39; 70,05</t>
+          <t>32,5; 64,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,98; 74,54</t>
+          <t>12,13; 53,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,03; 71,99</t>
+          <t>37,88; 68,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,4; 62,91</t>
+          <t>38,33; 68,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,03; 52,06</t>
+          <t>26,08; 74,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,93; 66,0</t>
+          <t>45,08; 66,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,83; 60,57</t>
+          <t>39,0; 60,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,72; 53,83</t>
+          <t>23,28; 54,81</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>51,12%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39,02%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42,86%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>62,89%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>49,64%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>50,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>51,12%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>39,02%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>47,46%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,18; 68,75</t>
+          <t>45,21; 56,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,33; 55,66</t>
+          <t>33,16; 44,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,75; 59,23</t>
+          <t>32,89; 54,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,35; 57,25</t>
+          <t>56,67; 68,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,0; 44,82</t>
+          <t>43,68; 55,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,39; 51,56</t>
+          <t>41,44; 60,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,78; 61,65</t>
+          <t>53,0; 61,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,75; 49,33</t>
+          <t>40,75; 49,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,16; 54,16</t>
+          <t>40,25; 54,73</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>53,64%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37,48%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>40,64%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>53,47%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>50,98%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>44,98%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>53,64%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>37,48%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>44,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>42,74%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,04; 60,62</t>
+          <t>46,02; 60,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,24; 58,82</t>
+          <t>31,25; 44,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,08; 54,66</t>
+          <t>30,91; 51,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,04; 60,56</t>
+          <t>46,02; 59,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,85; 44,23</t>
+          <t>44,11; 58,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,8; 50,17</t>
+          <t>35,01; 54,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,48; 58,31</t>
+          <t>48,71; 58,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,97; 49,29</t>
+          <t>39,54; 48,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,67; 49,68</t>
+          <t>35,48; 50,07</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>27,03%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>41,39%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>32,11%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>31,41%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>27,03%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>24,45%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>22,76%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,95; 48,14</t>
+          <t>21,07; 33,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,14; 39,12</t>
+          <t>18,98; 30,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,04; 41,26</t>
+          <t>5,93; 22,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,43; 33,41</t>
+          <t>35,49; 48,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 30,81</t>
+          <t>25,6; 39,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 21,93</t>
+          <t>23,84; 42,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,25; 39,08</t>
+          <t>29,79; 38,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,06; 33,01</t>
+          <t>24,3; 32,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,4; 29,82</t>
+          <t>15,77; 29,41</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>45,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34,79%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>53,69%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>45,36%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>40,97%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>45,04%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,79%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>34,99%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,05; 57,02</t>
+          <t>41,41; 48,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,64; 48,93</t>
+          <t>31,35; 38,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,25; 46,58</t>
+          <t>18,15; 34,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,39; 48,83</t>
+          <t>50,18; 57,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,57; 37,99</t>
+          <t>41,91; 48,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,06; 34,18</t>
+          <t>35,95; 46,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,79; 52,15</t>
+          <t>47,0; 51,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,87; 42,65</t>
+          <t>37,67; 42,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,63; 39,05</t>
+          <t>29,29; 39,01</t>
         </is>
       </c>
     </row>
